--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H2">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16675627279956</v>
+        <v>74.08958833333334</v>
       </c>
       <c r="N2">
-        <v>1.16675627279956</v>
+        <v>222.268765</v>
       </c>
       <c r="O2">
-        <v>0.05404241137711628</v>
+        <v>0.749631794917355</v>
       </c>
       <c r="P2">
-        <v>0.05404241137711628</v>
+        <v>0.7496317949173549</v>
       </c>
       <c r="Q2">
-        <v>7.282668246886307</v>
+        <v>493.4505871426068</v>
       </c>
       <c r="R2">
-        <v>7.282668246886307</v>
+        <v>4441.05528428346</v>
       </c>
       <c r="S2">
-        <v>0.007944337415544268</v>
+        <v>0.1124558937832796</v>
       </c>
       <c r="T2">
-        <v>0.007944337415544268</v>
+        <v>0.1124558937832796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H3">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.250193408534454</v>
+        <v>0.2521723333333333</v>
       </c>
       <c r="N3">
-        <v>0.250193408534454</v>
+        <v>0.756517</v>
       </c>
       <c r="O3">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="P3">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="Q3">
-        <v>1.561659135152677</v>
+        <v>1.679515148398667</v>
       </c>
       <c r="R3">
-        <v>1.561659135152677</v>
+        <v>15.115636335588</v>
       </c>
       <c r="S3">
-        <v>0.001703544178745782</v>
+        <v>0.000382756413827401</v>
       </c>
       <c r="T3">
-        <v>0.001703544178745782</v>
+        <v>0.0003827564138274009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H4">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7556865399449</v>
+        <v>21.48095</v>
       </c>
       <c r="N4">
-        <v>18.7556865399449</v>
+        <v>64.44284999999999</v>
       </c>
       <c r="O4">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="P4">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="Q4">
-        <v>117.0693880096028</v>
+        <v>143.0671654186</v>
       </c>
       <c r="R4">
-        <v>117.0693880096028</v>
+        <v>1287.6044887674</v>
       </c>
       <c r="S4">
-        <v>0.1277057649546502</v>
+        <v>0.03260457354271896</v>
       </c>
       <c r="T4">
-        <v>0.1277057649546502</v>
+        <v>0.03260457354271896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H5">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.4170050080466</v>
+        <v>3.011929</v>
       </c>
       <c r="N5">
-        <v>1.4170050080466</v>
+        <v>9.035787000000001</v>
       </c>
       <c r="O5">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="P5">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="Q5">
-        <v>8.844672720737689</v>
+        <v>20.06001338265201</v>
       </c>
       <c r="R5">
-        <v>8.844672720737689</v>
+        <v>180.540120443868</v>
       </c>
       <c r="S5">
-        <v>0.009648258308847427</v>
+        <v>0.004571616273300204</v>
       </c>
       <c r="T5">
-        <v>0.009648258308847427</v>
+        <v>0.004571616273300202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H6">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.16675627279956</v>
+        <v>74.08958833333334</v>
       </c>
       <c r="N6">
-        <v>1.16675627279956</v>
+        <v>222.268765</v>
       </c>
       <c r="O6">
-        <v>0.05404241137711628</v>
+        <v>0.749631794917355</v>
       </c>
       <c r="P6">
-        <v>0.05404241137711628</v>
+        <v>0.7496317949173549</v>
       </c>
       <c r="Q6">
-        <v>18.9700836008891</v>
+        <v>1215.834668203738</v>
       </c>
       <c r="R6">
-        <v>18.9700836008891</v>
+        <v>10942.51201383364</v>
       </c>
       <c r="S6">
-        <v>0.02069361665499175</v>
+        <v>0.2770850372218412</v>
       </c>
       <c r="T6">
-        <v>0.02069361665499175</v>
+        <v>0.2770850372218412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H7">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.250193408534454</v>
+        <v>0.2521723333333333</v>
       </c>
       <c r="N7">
-        <v>0.250193408534454</v>
+        <v>0.756517</v>
       </c>
       <c r="O7">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="P7">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="Q7">
-        <v>4.067850318817487</v>
+        <v>4.138231459042333</v>
       </c>
       <c r="R7">
-        <v>4.067850318817487</v>
+        <v>37.244083131381</v>
       </c>
       <c r="S7">
-        <v>0.004437436169419396</v>
+        <v>0.0009430904117542367</v>
       </c>
       <c r="T7">
-        <v>0.004437436169419396</v>
+        <v>0.0009430904117542366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H8">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.7556865399449</v>
+        <v>21.48095</v>
       </c>
       <c r="N8">
-        <v>18.7556865399449</v>
+        <v>64.44284999999999</v>
       </c>
       <c r="O8">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="P8">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="Q8">
-        <v>304.9453857240573</v>
+        <v>352.5094996944499</v>
       </c>
       <c r="R8">
-        <v>304.9453857240573</v>
+        <v>3172.58549725005</v>
       </c>
       <c r="S8">
-        <v>0.3326512969392751</v>
+        <v>0.08033584696856316</v>
       </c>
       <c r="T8">
-        <v>0.3326512969392751</v>
+        <v>0.08033584696856316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H9">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.4170050080466</v>
+        <v>3.011929</v>
       </c>
       <c r="N9">
-        <v>1.4170050080466</v>
+        <v>9.035787000000001</v>
       </c>
       <c r="O9">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="P9">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="Q9">
-        <v>23.03883346692788</v>
+        <v>49.426751838499</v>
       </c>
       <c r="R9">
-        <v>23.03883346692788</v>
+        <v>444.840766546491</v>
       </c>
       <c r="S9">
-        <v>0.02513203410028488</v>
+        <v>0.01126420699383303</v>
       </c>
       <c r="T9">
-        <v>0.02513203410028488</v>
+        <v>0.01126420699383303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H10">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.16675627279956</v>
+        <v>74.08958833333334</v>
       </c>
       <c r="N10">
-        <v>1.16675627279956</v>
+        <v>222.268765</v>
       </c>
       <c r="O10">
-        <v>0.05404241137711628</v>
+        <v>0.749631794917355</v>
       </c>
       <c r="P10">
-        <v>0.05404241137711628</v>
+        <v>0.7496317949173549</v>
       </c>
       <c r="Q10">
-        <v>15.42616973238922</v>
+        <v>1072.735370071558</v>
       </c>
       <c r="R10">
-        <v>15.42616973238922</v>
+        <v>9654.618330644025</v>
       </c>
       <c r="S10">
-        <v>0.01682771935079599</v>
+        <v>0.2444731407310511</v>
       </c>
       <c r="T10">
-        <v>0.01682771935079599</v>
+        <v>0.2444731407310511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H11">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.250193408534454</v>
+        <v>0.2521723333333333</v>
       </c>
       <c r="N11">
-        <v>0.250193408534454</v>
+        <v>0.756517</v>
       </c>
       <c r="O11">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="P11">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="Q11">
-        <v>3.307911065879072</v>
+        <v>3.651176736238333</v>
       </c>
       <c r="R11">
-        <v>3.307911065879072</v>
+        <v>32.860590626145</v>
       </c>
       <c r="S11">
-        <v>0.003608452390947733</v>
+        <v>0.0008320921160759256</v>
       </c>
       <c r="T11">
-        <v>0.003608452390947733</v>
+        <v>0.0008320921160759253</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H12">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7556865399449</v>
+        <v>21.48095</v>
       </c>
       <c r="N12">
-        <v>18.7556865399449</v>
+        <v>64.44284999999999</v>
       </c>
       <c r="O12">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="P12">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="Q12">
-        <v>247.9767289516707</v>
+        <v>311.0204195502499</v>
       </c>
       <c r="R12">
-        <v>247.9767289516707</v>
+        <v>2799.18377595225</v>
       </c>
       <c r="S12">
-        <v>0.2705067345113944</v>
+        <v>0.07088061130478687</v>
       </c>
       <c r="T12">
-        <v>0.2705067345113944</v>
+        <v>0.07088061130478686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H13">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.4170050080466</v>
+        <v>3.011929</v>
       </c>
       <c r="N13">
-        <v>1.4170050080466</v>
+        <v>9.035787000000001</v>
       </c>
       <c r="O13">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="P13">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="Q13">
-        <v>18.73481229573609</v>
+        <v>43.609403738455</v>
       </c>
       <c r="R13">
-        <v>18.73481229573609</v>
+        <v>392.484633646095</v>
       </c>
       <c r="S13">
-        <v>0.0204369696996495</v>
+        <v>0.009938450986879793</v>
       </c>
       <c r="T13">
-        <v>0.0204369696996495</v>
+        <v>0.009938450986879789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H14">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.16675627279956</v>
+        <v>74.08958833333334</v>
       </c>
       <c r="N14">
-        <v>1.16675627279956</v>
+        <v>222.268765</v>
       </c>
       <c r="O14">
-        <v>0.05404241137711628</v>
+        <v>0.749631794917355</v>
       </c>
       <c r="P14">
-        <v>0.05404241137711628</v>
+        <v>0.7496317949173549</v>
       </c>
       <c r="Q14">
-        <v>7.862397315884333</v>
+        <v>507.3245293643184</v>
       </c>
       <c r="R14">
-        <v>7.862397315884333</v>
+        <v>4565.920764278865</v>
       </c>
       <c r="S14">
-        <v>0.008576737955784276</v>
+        <v>0.1156177231811829</v>
       </c>
       <c r="T14">
-        <v>0.008576737955784276</v>
+        <v>0.1156177231811829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H15">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.250193408534454</v>
+        <v>0.2521723333333333</v>
       </c>
       <c r="N15">
-        <v>0.250193408534454</v>
+        <v>0.756517</v>
       </c>
       <c r="O15">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="P15">
-        <v>0.01158858574243525</v>
+        <v>0.002551457001146754</v>
       </c>
       <c r="Q15">
-        <v>1.685973351566613</v>
+        <v>1.726736687366333</v>
       </c>
       <c r="R15">
-        <v>1.685973351566613</v>
+        <v>15.540630186297</v>
       </c>
       <c r="S15">
-        <v>0.001839153003322343</v>
+        <v>0.0003935180594891908</v>
       </c>
       <c r="T15">
-        <v>0.001839153003322343</v>
+        <v>0.0003935180594891908</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H16">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.7556865399449</v>
+        <v>21.48095</v>
       </c>
       <c r="N16">
-        <v>18.7556865399449</v>
+        <v>64.44284999999999</v>
       </c>
       <c r="O16">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="P16">
-        <v>0.8687354431100405</v>
+        <v>0.2173423211987967</v>
       </c>
       <c r="Q16">
-        <v>126.3885722725949</v>
+        <v>147.08966663465</v>
       </c>
       <c r="R16">
-        <v>126.3885722725949</v>
+        <v>1323.80699971185</v>
       </c>
       <c r="S16">
-        <v>0.1378716467047207</v>
+        <v>0.03352128938272768</v>
       </c>
       <c r="T16">
-        <v>0.1378716467047207</v>
+        <v>0.03352128938272768</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H17">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.4170050080466</v>
+        <v>3.011929</v>
       </c>
       <c r="N17">
-        <v>1.4170050080466</v>
+        <v>9.035787000000001</v>
       </c>
       <c r="O17">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="P17">
-        <v>0.06563355977040794</v>
+        <v>0.03047442688270168</v>
       </c>
       <c r="Q17">
-        <v>9.548743496469887</v>
+        <v>20.624024195263</v>
       </c>
       <c r="R17">
-        <v>9.548743496469887</v>
+        <v>185.616217757367</v>
       </c>
       <c r="S17">
-        <v>0.01041629766162613</v>
+        <v>0.004700152628688658</v>
       </c>
       <c r="T17">
-        <v>0.01041629766162613</v>
+        <v>0.004700152628688658</v>
       </c>
     </row>
   </sheetData>
